--- a/data/trans_orig/IP07C08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C08-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96CD788E-E19E-4536-A0B5-B6838B9D9F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{505EDBAC-3AEC-48AF-8AF2-E423C0BB4C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8E96B04-9031-4957-896C-58D91B42547C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE6A9C14-BF95-406F-86AC-14104FC53475}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="462">
   <si>
     <t>Menores según frecuencia de haberse ayudado entre los amigos en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>41,23%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
   </si>
   <si>
     <t>44,15%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
   </si>
   <si>
     <t>42,74%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>41,46%</t>
   </si>
   <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>40,58%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
   </si>
   <si>
     <t>41,0%</t>
   </si>
   <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,28 +136,28 @@
     <t>17,32%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -175,1249 +175,1255 @@
     <t>1,42%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>7,11%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>34,27%</t>
   </si>
   <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>1,47%</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883B803E-C404-4DFD-94C3-45E7AB0BD6A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB82B34-27EA-4FA0-A0B6-579513635773}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2348,7 +2354,7 @@
         <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2369,13 @@
         <v>23518</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>28</v>
@@ -2378,13 +2384,13 @@
         <v>17846</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -2393,13 +2399,13 @@
         <v>41364</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2420,13 @@
         <v>1809</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2429,13 +2435,13 @@
         <v>2645</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2444,13 +2450,13 @@
         <v>4454</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2471,13 @@
         <v>1374</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2480,13 +2486,13 @@
         <v>661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2495,13 +2501,13 @@
         <v>2035</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,7 +2563,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2569,13 +2575,13 @@
         <v>15067</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -2584,13 +2590,13 @@
         <v>17308</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2599,13 +2605,13 @@
         <v>32375</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2626,13 @@
         <v>25539</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -2635,13 +2641,13 @@
         <v>27020</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -2650,13 +2656,13 @@
         <v>52559</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2677,13 @@
         <v>7033</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -2686,13 +2692,13 @@
         <v>9264</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -2701,13 +2707,13 @@
         <v>16297</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2728,13 @@
         <v>1401</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2743,7 +2749,7 @@
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2752,13 +2758,13 @@
         <v>1401</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,7 +2785,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2794,7 +2800,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2809,7 +2815,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2883,13 @@
         <v>117723</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>170</v>
@@ -2892,13 +2898,13 @@
         <v>113237</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>347</v>
@@ -2907,13 +2913,13 @@
         <v>230960</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2934,13 @@
         <v>148516</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>204</v>
@@ -2943,13 +2949,13 @@
         <v>139312</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>427</v>
@@ -2958,13 +2964,13 @@
         <v>287829</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,13 +2985,13 @@
         <v>38036</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -2994,13 +3000,13 @@
         <v>33483</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -3009,13 +3015,13 @@
         <v>71519</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3036,13 @@
         <v>3211</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3045,13 +3051,13 @@
         <v>3298</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3060,13 +3066,13 @@
         <v>6509</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3087,13 @@
         <v>1374</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3096,13 +3102,13 @@
         <v>661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3111,13 +3117,13 @@
         <v>2035</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,7 +3179,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E203B2-2309-44A6-9195-C1314EB6180D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14029D8-BC42-4F0A-85DC-EB80C0AE1444}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3209,7 +3215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3316,13 +3322,13 @@
         <v>18959</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -3331,13 +3337,13 @@
         <v>25277</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -3346,13 +3352,13 @@
         <v>44236</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3373,13 @@
         <v>17663</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3382,13 +3388,13 @@
         <v>22780</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -3397,13 +3403,13 @@
         <v>40443</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3424,13 @@
         <v>7309</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3433,13 +3439,13 @@
         <v>2801</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -3448,13 +3454,13 @@
         <v>10110</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3475,13 @@
         <v>1231</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3490,7 +3496,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3499,13 +3505,13 @@
         <v>1231</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3532,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3535,13 +3541,13 @@
         <v>768</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3550,13 +3556,13 @@
         <v>768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3630,13 @@
         <v>105890</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -3642,10 +3648,10 @@
         <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>268</v>
@@ -3654,13 +3660,13 @@
         <v>187523</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3681,13 @@
         <v>84157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>138</v>
@@ -3690,13 +3696,13 @@
         <v>96324</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>261</v>
@@ -3705,13 +3711,13 @@
         <v>180481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3732,13 @@
         <v>28749</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -3741,13 +3747,13 @@
         <v>16576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -3756,13 +3762,13 @@
         <v>45324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3783,13 @@
         <v>3781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3792,13 +3798,13 @@
         <v>3090</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3807,13 +3813,13 @@
         <v>6871</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3834,13 @@
         <v>2188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3843,13 +3849,13 @@
         <v>1465</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3858,13 +3864,13 @@
         <v>3653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,7 +3926,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3932,13 +3938,13 @@
         <v>24541</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3947,13 +3953,13 @@
         <v>33977</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -3962,13 +3968,13 @@
         <v>58518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,13 +3989,13 @@
         <v>23820</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -3998,13 +4004,13 @@
         <v>21202</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -4013,13 +4019,13 @@
         <v>45022</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4040,13 @@
         <v>7166</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -4049,13 +4055,13 @@
         <v>3573</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -4064,13 +4070,13 @@
         <v>10739</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,7 +4097,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4100,13 +4106,13 @@
         <v>609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4115,13 +4121,13 @@
         <v>609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4142,13 @@
         <v>625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4151,13 +4157,13 @@
         <v>726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4166,13 +4172,13 @@
         <v>1351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4246,13 @@
         <v>149390</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>199</v>
@@ -4255,13 +4261,13 @@
         <v>140887</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>289</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>416</v>
@@ -4270,13 +4276,13 @@
         <v>290277</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>67</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4297,13 @@
         <v>125640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>199</v>
@@ -4306,13 +4312,13 @@
         <v>140305</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>381</v>
@@ -4321,13 +4327,13 @@
         <v>265946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4348,13 @@
         <v>43224</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -4357,13 +4363,13 @@
         <v>22949</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>97</v>
@@ -4372,13 +4378,13 @@
         <v>66173</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4399,13 @@
         <v>5012</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4408,13 +4414,13 @@
         <v>3698</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -4423,13 +4429,13 @@
         <v>8710</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4450,13 @@
         <v>2813</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>316</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -4459,13 +4465,13 @@
         <v>2959</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -4474,13 +4480,13 @@
         <v>5771</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,7 +4542,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6831EDE-85A8-4031-AE15-8D2FDA193E6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2305EE-ADBD-4301-A24E-A3BC90464F61}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4572,7 +4578,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4679,13 +4685,13 @@
         <v>9851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4694,13 +4700,13 @@
         <v>7996</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4709,13 +4715,13 @@
         <v>17847</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4736,13 @@
         <v>16996</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -4745,13 +4751,13 @@
         <v>18440</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4760,13 +4766,13 @@
         <v>35436</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4787,13 @@
         <v>6807</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4796,13 +4802,13 @@
         <v>4170</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>343</v>
+        <v>194</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4811,13 +4817,13 @@
         <v>10977</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4838,13 @@
         <v>2321</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4853,7 +4859,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4862,13 +4868,13 @@
         <v>2321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,7 +4895,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4904,7 +4910,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4919,7 +4925,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4993,13 @@
         <v>117708</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7">
         <v>174</v>
@@ -5002,13 +5008,13 @@
         <v>122823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>336</v>
@@ -5017,13 +5023,13 @@
         <v>240531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5044,13 @@
         <v>90638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -5053,13 +5059,13 @@
         <v>92270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M11" s="7">
         <v>257</v>
@@ -5068,13 +5074,13 @@
         <v>182908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5095,13 @@
         <v>22620</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -5104,13 +5110,13 @@
         <v>25505</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>376</v>
+        <v>154</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -5119,13 +5125,13 @@
         <v>48125</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,13 +5146,13 @@
         <v>4165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>91</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5155,13 +5161,13 @@
         <v>1516</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5170,13 +5176,13 @@
         <v>5680</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5197,13 @@
         <v>1280</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5206,13 +5212,13 @@
         <v>1884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5221,13 +5227,13 @@
         <v>3164</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,7 +5289,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5295,13 +5301,13 @@
         <v>48804</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -5310,13 +5316,13 @@
         <v>38362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -5325,13 +5331,13 @@
         <v>87166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,13 +5352,13 @@
         <v>19083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -5361,13 +5367,13 @@
         <v>26274</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5376,13 +5382,13 @@
         <v>45357</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,13 +5403,13 @@
         <v>6175</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -5412,13 +5418,13 @@
         <v>5141</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -5427,13 +5433,13 @@
         <v>11316</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5454,13 @@
         <v>891</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5463,13 +5469,13 @@
         <v>687</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5478,13 +5484,13 @@
         <v>1578</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,7 +5511,7 @@
         <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5520,7 +5526,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5529,7 +5535,7 @@
         <v>549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
@@ -5562,7 +5568,7 @@
         <v>99</v>
       </c>
       <c r="I21" s="7">
-        <v>70463</v>
+        <v>70464</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>50</v>
@@ -5672,10 +5678,10 @@
         <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>210</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M23" s="7">
         <v>371</v>
@@ -5684,13 +5690,13 @@
         <v>263701</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,10 +5711,10 @@
         <v>35603</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>444</v>
@@ -5726,7 +5732,7 @@
         <v>446</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -5735,13 +5741,13 @@
         <v>70418</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5762,13 @@
         <v>7378</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>313</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5771,13 +5777,13 @@
         <v>2202</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5786,13 +5792,13 @@
         <v>9580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5813,13 @@
         <v>1828</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5822,13 +5828,13 @@
         <v>1884</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>459</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5837,13 +5843,13 @@
         <v>3712</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,7 +5905,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{505EDBAC-3AEC-48AF-8AF2-E423C0BB4C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED087236-8F91-4519-B50F-A222936DBDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE6A9C14-BF95-406F-86AC-14104FC53475}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AE6C6323-1602-45BC-81D7-44095B9C60B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="465">
   <si>
     <t>Menores según frecuencia de haberse ayudado entre los amigos en 2007 (Tasa respuesta: 42,59%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,115 +73,115 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
     <t>41,23%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>42,74%</t>
   </si>
   <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
   </si>
   <si>
     <t>41,0%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>15,53%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>Casi nunca</t>
   </si>
   <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>7,96%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>3,65%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -196,1234 +196,1243 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
     <t>39,17%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
   </si>
   <si>
     <t>48,5%</t>
   </si>
   <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
   </si>
   <si>
     <t>48,82%</t>
   </si>
   <si>
-    <t>45,06%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>6,4%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
   </si>
   <si>
     <t>44,81%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2012 (Tasa respuesta: 43,64%)</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haberse ayudado entre los amigos en 2016 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>1,58%</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB82B34-27EA-4FA0-A0B6-579513635773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610AA637-8F47-41E0-9F7F-A46590811761}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1953,10 +1962,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>17820</v>
+        <v>20316</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1968,10 +1977,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>20316</v>
+        <v>17820</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2004,10 +2013,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>17919</v>
+        <v>18672</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2019,10 +2028,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>18672</v>
+        <v>17919</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2055,10 +2064,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>7485</v>
+        <v>6373</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2070,10 +2079,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>6373</v>
+        <v>7485</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2106,10 +2115,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2121,16 +2130,16 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>45</v>
@@ -2145,7 +2154,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>47</v>
@@ -2163,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2178,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2193,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,25 +2217,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -2261,10 +2270,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D10" s="7">
-        <v>84836</v>
+        <v>75614</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>52</v>
@@ -2276,10 +2285,10 @@
         <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I10" s="7">
-        <v>75614</v>
+        <v>84836</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>55</v>
@@ -2312,10 +2321,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D11" s="7">
-        <v>105058</v>
+        <v>93621</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>61</v>
@@ -2327,10 +2336,10 @@
         <v>63</v>
       </c>
       <c r="H11" s="7">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="I11" s="7">
-        <v>93621</v>
+        <v>105058</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>64</v>
@@ -2354,7 +2363,7 @@
         <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,34 +2372,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7">
+        <v>17846</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23518</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="7">
-        <v>28</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17846</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>64</v>
@@ -2399,13 +2408,13 @@
         <v>41364</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,34 +2423,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2645</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1809</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2645</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2450,13 +2459,13 @@
         <v>4454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,34 +2474,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1374</v>
+        <v>661</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>661</v>
+        <v>1374</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2516,25 +2525,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
         <v>327</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>216595</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>50</v>
@@ -2569,10 +2578,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>15067</v>
+        <v>17308</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>94</v>
@@ -2584,10 +2593,10 @@
         <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>17308</v>
+        <v>15067</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>97</v>
@@ -2620,10 +2629,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>25539</v>
+        <v>27020</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>103</v>
@@ -2635,10 +2644,10 @@
         <v>105</v>
       </c>
       <c r="H17" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>27020</v>
+        <v>25539</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>106</v>
@@ -2671,10 +2680,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7">
-        <v>7033</v>
+        <v>9264</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>112</v>
@@ -2686,10 +2695,10 @@
         <v>114</v>
       </c>
       <c r="H18" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>9264</v>
+        <v>7033</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>115</v>
@@ -2722,28 +2731,28 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>1401</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
@@ -2761,7 +2770,7 @@
         <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>125</v>
@@ -2779,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2794,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2809,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>127</v>
@@ -2824,25 +2833,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>77</v>
+      </c>
+      <c r="D21" s="7">
+        <v>53593</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>77</v>
-      </c>
-      <c r="I21" s="7">
-        <v>53593</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>50</v>
@@ -2877,10 +2886,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D22" s="7">
-        <v>117723</v>
+        <v>113237</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>128</v>
@@ -2892,10 +2901,10 @@
         <v>130</v>
       </c>
       <c r="H22" s="7">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="I22" s="7">
-        <v>113237</v>
+        <v>117723</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>131</v>
@@ -2928,10 +2937,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D23" s="7">
-        <v>148516</v>
+        <v>139312</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>137</v>
@@ -2943,10 +2952,10 @@
         <v>139</v>
       </c>
       <c r="H23" s="7">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="I23" s="7">
-        <v>139312</v>
+        <v>148516</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>140</v>
@@ -2979,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7">
-        <v>38036</v>
+        <v>33483</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>146</v>
@@ -2994,10 +3003,10 @@
         <v>148</v>
       </c>
       <c r="H24" s="7">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I24" s="7">
-        <v>33483</v>
+        <v>38036</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>149</v>
@@ -3033,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>3211</v>
+        <v>3298</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>155</v>
@@ -3048,7 +3057,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>3298</v>
+        <v>3211</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>158</v>
@@ -3066,7 +3075,7 @@
         <v>6509</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>161</v>
@@ -3081,34 +3090,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>661</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1374</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>661</v>
-      </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3132,25 +3141,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>431</v>
+      </c>
+      <c r="D27" s="7">
+        <v>289992</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
         <v>465</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>308859</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
-        <v>431</v>
-      </c>
-      <c r="I27" s="7">
-        <v>289992</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
@@ -3198,7 +3207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14029D8-BC42-4F0A-85DC-EB80C0AE1444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B0C329-4EEC-4553-A91D-7947E442B86D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3316,10 +3325,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>18959</v>
+        <v>25277</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>170</v>
@@ -3331,10 +3340,10 @@
         <v>172</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>25277</v>
+        <v>18959</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>173</v>
@@ -3367,10 +3376,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>17663</v>
+        <v>22780</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>179</v>
@@ -3382,10 +3391,10 @@
         <v>181</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>22780</v>
+        <v>17663</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>182</v>
@@ -3418,10 +3427,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>7309</v>
+        <v>2801</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>188</v>
@@ -3433,19 +3442,19 @@
         <v>190</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>2801</v>
+        <v>7309</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -3454,13 +3463,13 @@
         <v>10110</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,34 +3478,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1231</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3508,10 +3517,10 @@
         <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,34 +3529,34 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3556,13 +3565,13 @@
         <v>768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,25 +3580,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -3624,34 +3633,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>115</v>
+      </c>
+      <c r="D10" s="7">
+        <v>81633</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="7">
         <v>153</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>105890</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="7">
-        <v>115</v>
-      </c>
-      <c r="I10" s="7">
-        <v>81633</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>268</v>
@@ -3660,13 +3669,13 @@
         <v>187523</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,34 +3684,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>138</v>
+      </c>
+      <c r="D11" s="7">
+        <v>96324</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="7">
         <v>123</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>84157</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="7">
-        <v>138</v>
-      </c>
-      <c r="I11" s="7">
-        <v>96324</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>261</v>
@@ -3711,13 +3720,13 @@
         <v>180481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,34 +3735,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16576</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="7">
         <v>43</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>28749</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>16576</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -3762,13 +3771,13 @@
         <v>45324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,34 +3786,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3090</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3781</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3090</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -3813,13 +3822,13 @@
         <v>6871</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,34 +3837,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1465</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2188</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1465</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3864,13 +3873,13 @@
         <v>3653</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,25 +3888,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199087</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>224765</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199087</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>50</v>
@@ -3932,34 +3941,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7">
+        <v>33977</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="7">
         <v>37</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>24541</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H16" s="7">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>33977</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -3968,13 +3977,13 @@
         <v>58518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,34 +3992,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7">
+        <v>21202</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="7">
         <v>34</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>23820</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" s="7">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21202</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -4019,13 +4028,13 @@
         <v>45022</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,34 +4043,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3573</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7166</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3573</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -4070,13 +4079,13 @@
         <v>10739</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,34 +4094,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4121,13 +4130,13 @@
         <v>609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,31 +4148,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>625</v>
+        <v>726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>726</v>
+        <v>625</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4172,13 +4181,13 @@
         <v>1351</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,25 +4196,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60086</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>84</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60086</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>50</v>
@@ -4240,34 +4249,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>199</v>
+      </c>
+      <c r="D22" s="7">
+        <v>140887</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="7">
         <v>217</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>149390</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H22" s="7">
-        <v>199</v>
-      </c>
-      <c r="I22" s="7">
-        <v>140887</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>416</v>
@@ -4276,13 +4285,13 @@
         <v>290277</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,34 +4300,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>199</v>
+      </c>
+      <c r="D23" s="7">
+        <v>140305</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H23" s="7">
         <v>182</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>125640</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="7">
-        <v>199</v>
-      </c>
-      <c r="I23" s="7">
-        <v>140305</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M23" s="7">
         <v>381</v>
@@ -4327,13 +4336,13 @@
         <v>265946</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,34 +4351,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22949</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" s="7">
         <v>63</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>43224</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H24" s="7">
-        <v>34</v>
-      </c>
-      <c r="I24" s="7">
-        <v>22949</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>97</v>
@@ -4378,13 +4387,13 @@
         <v>66173</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,34 +4402,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3698</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H25" s="7">
         <v>8</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5012</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3698</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -4432,10 +4441,10 @@
         <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,31 +4456,31 @@
         <v>4</v>
       </c>
       <c r="D26" s="7">
-        <v>2813</v>
+        <v>2959</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>2959</v>
+        <v>2813</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -4480,13 +4489,13 @@
         <v>5771</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,25 +4504,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>442</v>
+      </c>
+      <c r="D27" s="7">
+        <v>310798</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>326078</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
-        <v>442</v>
-      </c>
-      <c r="I27" s="7">
-        <v>310798</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
@@ -4561,7 +4570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2305EE-ADBD-4301-A24E-A3BC90464F61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40081362-9BE4-41E4-9D16-70A09993B1DE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4578,7 +4587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4679,34 +4688,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7996</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="7">
         <v>13</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>9851</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H4" s="7">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7996</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4715,13 +4724,13 @@
         <v>17847</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,34 +4739,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18440</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="7">
         <v>24</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>16996</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18440</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4766,13 +4775,13 @@
         <v>35436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,34 +4790,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4170</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>6807</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4170</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>194</v>
+        <v>347</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4817,13 +4826,13 @@
         <v>10977</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,34 +4841,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2321</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4868,13 +4877,13 @@
         <v>2321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4898,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4904,13 +4913,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4919,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,25 +4943,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7">
+        <v>50</v>
+      </c>
+      <c r="I9" s="7">
         <v>35976</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>50</v>
@@ -4987,34 +4996,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>174</v>
+      </c>
+      <c r="D10" s="7">
+        <v>122823</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H10" s="7">
         <v>162</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>117708</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="7">
-        <v>174</v>
-      </c>
-      <c r="I10" s="7">
-        <v>122823</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>336</v>
@@ -5023,13 +5032,13 @@
         <v>240531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,34 +5047,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>134</v>
+      </c>
+      <c r="D11" s="7">
+        <v>92270</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11" s="7">
         <v>123</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>90638</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H11" s="7">
-        <v>134</v>
-      </c>
-      <c r="I11" s="7">
-        <v>92270</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
         <v>257</v>
@@ -5074,13 +5083,13 @@
         <v>182908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,34 +5098,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7">
+        <v>25505</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="7">
         <v>30</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>22620</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H12" s="7">
-        <v>36</v>
-      </c>
-      <c r="I12" s="7">
-        <v>25505</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -5125,13 +5134,13 @@
         <v>48125</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,34 +5149,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1516</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H13" s="7">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>4165</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1516</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5176,13 +5185,13 @@
         <v>5680</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,34 +5200,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1884</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>1280</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1884</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -5227,13 +5236,13 @@
         <v>3164</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,25 +5251,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>349</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7">
         <v>323</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>236411</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="7">
-        <v>349</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>50</v>
@@ -5295,34 +5304,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38362</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H16" s="7">
         <v>67</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>48804</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H16" s="7">
-        <v>54</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38362</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -5331,13 +5340,13 @@
         <v>87166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,34 +5355,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7">
+        <v>26274</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H17" s="7">
         <v>27</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>19083</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H17" s="7">
-        <v>37</v>
-      </c>
-      <c r="I17" s="7">
-        <v>26274</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5382,13 +5391,13 @@
         <v>45357</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,34 +5406,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5141</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H18" s="7">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>6175</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5141</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -5433,13 +5442,13 @@
         <v>11316</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,31 +5460,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>891</v>
+        <v>687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>687</v>
+        <v>891</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -5484,13 +5493,13 @@
         <v>1578</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,34 +5508,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>549</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5535,13 +5544,13 @@
         <v>549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,25 +5559,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>99</v>
+      </c>
+      <c r="D21" s="7">
+        <v>70463</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>99</v>
-      </c>
-      <c r="I21" s="7">
-        <v>70464</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>50</v>
@@ -5603,34 +5612,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>240</v>
+      </c>
+      <c r="D22" s="7">
+        <v>169182</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H22" s="7">
         <v>242</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>176363</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H22" s="7">
-        <v>240</v>
-      </c>
-      <c r="I22" s="7">
-        <v>169182</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>187</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>482</v>
@@ -5639,13 +5648,13 @@
         <v>345544</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,34 +5663,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>197</v>
+      </c>
+      <c r="D23" s="7">
+        <v>136984</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H23" s="7">
         <v>174</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>126718</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H23" s="7">
-        <v>197</v>
-      </c>
-      <c r="I23" s="7">
-        <v>136984</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>371</v>
@@ -5690,13 +5699,13 @@
         <v>263701</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,31 +5717,31 @@
         <v>49</v>
       </c>
       <c r="D24" s="7">
-        <v>35603</v>
+        <v>34816</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
       </c>
       <c r="I24" s="7">
-        <v>34816</v>
+        <v>35603</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>447</v>
+        <v>380</v>
       </c>
       <c r="M24" s="7">
         <v>98</v>
@@ -5741,13 +5750,13 @@
         <v>70418</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,34 +5765,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2202</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H25" s="7">
         <v>10</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>7378</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2202</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5792,13 +5801,13 @@
         <v>9580</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,31 +5819,31 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>1828</v>
+        <v>1884</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>389</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>91</v>
+        <v>461</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>1884</v>
+        <v>1828</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>460</v>
+        <v>91</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5843,13 +5852,13 @@
         <v>3712</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>380</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,25 +5867,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>492</v>
+      </c>
+      <c r="D27" s="7">
+        <v>345068</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
         <v>478</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>347889</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
-        <v>492</v>
-      </c>
-      <c r="I27" s="7">
-        <v>345068</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>50</v>
